--- a/PRIMER/Imported Files/AveStdPA_bkgd.xlsx
+++ b/PRIMER/Imported Files/AveStdPA_bkgd.xlsx
@@ -2179,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.002196750928994038</v>
+        <v>0.002196750928994039</v>
       </c>
       <c r="FW2">
         <v>0.01498422342835563</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.004654939140784361</v>
+        <v>0.00465493914078436</v>
       </c>
       <c r="CQ3">
         <v>0.02556392067356976</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.004338197046920543</v>
+        <v>0.004338197046920542</v>
       </c>
       <c r="FR3">
         <v>0.04739304360891406</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.04350871280414494</v>
+        <v>0.04350871280414493</v>
       </c>
       <c r="CE4">
         <v>0.188916709234757</v>
@@ -4129,10 +4129,10 @@
         <v>0.0555911258236305</v>
       </c>
       <c r="BA5">
-        <v>0.004007017153391474</v>
+        <v>0.004007017153391475</v>
       </c>
       <c r="BB5">
-        <v>0.2240242448987316</v>
+        <v>0.2240242448987317</v>
       </c>
       <c r="BC5">
         <v>0.05153666432290797</v>
@@ -4504,10 +4504,10 @@
         <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.00407366612822107</v>
+        <v>0.004073666128221071</v>
       </c>
       <c r="FW5">
-        <v>0.003008297567998135</v>
+        <v>0.003008297567998136</v>
       </c>
       <c r="FX5">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         <v>0.03187839257379492</v>
       </c>
       <c r="IG5">
-        <v>0.008461361473640032</v>
+        <v>0.008461361473640034</v>
       </c>
       <c r="IH5">
         <v>0.02874545142691645</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.002992045693228515</v>
+        <v>0.002992045693228514</v>
       </c>
       <c r="AV6">
         <v>0.2032362777565359</v>
@@ -5646,7 +5646,7 @@
         <v>0.6831954106498295</v>
       </c>
       <c r="AP7">
-        <v>1.552480006034179</v>
+        <v>1.552480006034178</v>
       </c>
       <c r="AQ7">
         <v>0.1417887872398362</v>
@@ -6102,7 +6102,7 @@
         <v>0.1133362236394602</v>
       </c>
       <c r="GL7">
-        <v>0.004078419503267696</v>
+        <v>0.004078419503267695</v>
       </c>
       <c r="GM7">
         <v>0.112662187036332</v>
@@ -6198,7 +6198,7 @@
         <v>0.2026643030592848</v>
       </c>
       <c r="HR7">
-        <v>0.00704684772262914</v>
+        <v>0.007046847722629141</v>
       </c>
       <c r="HS7">
         <v>0.06263450570224197</v>
@@ -6535,7 +6535,7 @@
         <v>0.0138288378083923</v>
       </c>
       <c r="CB8">
-        <v>0.05153203264444796</v>
+        <v>0.05153203264444797</v>
       </c>
       <c r="CC8">
         <v>0.02409652368390092</v>
@@ -6814,7 +6814,7 @@
         <v>0</v>
       </c>
       <c r="FQ8">
-        <v>0.05656699037799706</v>
+        <v>0.05656699037799707</v>
       </c>
       <c r="FR8">
         <v>0.03544505828344193</v>
@@ -7238,7 +7238,7 @@
         <v>0.2135474080337534</v>
       </c>
       <c r="BD9">
-        <v>0.0581979745433385</v>
+        <v>0.05819797454333849</v>
       </c>
       <c r="BE9">
         <v>0.1376633858180736</v>
@@ -7397,7 +7397,7 @@
         <v>0</v>
       </c>
       <c r="DE9">
-        <v>0.008433768131916127</v>
+        <v>0.008433768131916129</v>
       </c>
       <c r="DF9">
         <v>0.01616660546526643</v>
@@ -7817,7 +7817,7 @@
         <v>0.02670707969061262</v>
       </c>
       <c r="IO9">
-        <v>0.01121154105555312</v>
+        <v>0.01121154105555313</v>
       </c>
       <c r="IP9">
         <v>2.43029604854181</v>
@@ -8917,7 +8917,7 @@
         <v>0.2467518211858103</v>
       </c>
       <c r="CU11">
-        <v>0.003781018547022371</v>
+        <v>0.003781018547022372</v>
       </c>
       <c r="CV11">
         <v>0.0166557255220596</v>
@@ -9226,7 +9226,7 @@
         <v>0.07217709519472254</v>
       </c>
       <c r="GT11">
-        <v>0.04676745878423641</v>
+        <v>0.0467674587842364</v>
       </c>
       <c r="GU11">
         <v>0.01591525458437375</v>
@@ -9271,7 +9271,7 @@
         <v>0.01101460215532562</v>
       </c>
       <c r="HI11">
-        <v>0.0041413872404699</v>
+        <v>0.004141387240469899</v>
       </c>
       <c r="HJ11">
         <v>0.08312638901389716</v>
@@ -9686,7 +9686,7 @@
         <v>0.07838218522367325</v>
       </c>
       <c r="CS12">
-        <v>0.003670163563929168</v>
+        <v>0.003670163563929169</v>
       </c>
       <c r="CT12">
         <v>0.1357017390598917</v>
@@ -10031,7 +10031,7 @@
         <v>0.1224437703591766</v>
       </c>
       <c r="HD12">
-        <v>0.005022265279078204</v>
+        <v>0.005022265279078205</v>
       </c>
       <c r="HE12">
         <v>0.01115828803675429</v>
@@ -10088,7 +10088,7 @@
         <v>0.04077870986961291</v>
       </c>
       <c r="HW12">
-        <v>0.004647320461851872</v>
+        <v>0.004647320461851873</v>
       </c>
       <c r="HX12">
         <v>0</v>
@@ -11020,7 +11020,7 @@
         <v>0.02371852314495755</v>
       </c>
       <c r="Y14">
-        <v>0.04791004607417788</v>
+        <v>0.04791004607417787</v>
       </c>
       <c r="Z14">
         <v>0.01584568610461338</v>
@@ -11041,7 +11041,7 @@
         <v>0.01260528256364978</v>
       </c>
       <c r="AF14">
-        <v>0.0563562150495199</v>
+        <v>0.05635621504951989</v>
       </c>
       <c r="AG14">
         <v>0.01140782346266405</v>
@@ -12930,7 +12930,7 @@
         <v>0.04497169346671352</v>
       </c>
       <c r="EO16">
-        <v>0.002084784816953254</v>
+        <v>0.002084784816953253</v>
       </c>
       <c r="EP16">
         <v>0.01411551515477603</v>
@@ -13549,7 +13549,7 @@
         <v>0.07220090737759867</v>
       </c>
       <c r="CO17">
-        <v>0.004303522606098213</v>
+        <v>0.004303522606098214</v>
       </c>
       <c r="CP17">
         <v>0.03874027370730584</v>
@@ -13597,7 +13597,7 @@
         <v>0</v>
       </c>
       <c r="DE17">
-        <v>0.002138977230266764</v>
+        <v>0.002138977230266763</v>
       </c>
       <c r="DF17">
         <v>0.006317594384739966</v>
@@ -16517,7 +16517,7 @@
         <v>0.02948217805465854</v>
       </c>
       <c r="AW21">
-        <v>0.00932703562633661</v>
+        <v>0.009327035626336608</v>
       </c>
       <c r="AX21">
         <v>0</v>
@@ -16553,7 +16553,7 @@
         <v>0.1506157020201533</v>
       </c>
       <c r="BI21">
-        <v>0.02983389926524782</v>
+        <v>0.02983389926524783</v>
       </c>
       <c r="BJ21">
         <v>0.5854585916553159</v>
@@ -16613,7 +16613,7 @@
         <v>0.1801027298780385</v>
       </c>
       <c r="CC21">
-        <v>0.008315877497353982</v>
+        <v>0.008315877497353984</v>
       </c>
       <c r="CD21">
         <v>0.1169198762895332</v>
@@ -17853,7 +17853,7 @@
         <v>0.1755804502118945</v>
       </c>
       <c r="IB22">
-        <v>0.7735711339339063</v>
+        <v>0.7735711339339062</v>
       </c>
       <c r="IC22">
         <v>0.03080269465050211</v>
@@ -18088,7 +18088,7 @@
         <v>0.01246279519830944</v>
       </c>
       <c r="BD23">
-        <v>0.005548263340312178</v>
+        <v>0.005548263340312177</v>
       </c>
       <c r="BE23">
         <v>0.3345234075655001</v>
@@ -18460,7 +18460,7 @@
         <v>0</v>
       </c>
       <c r="FX23">
-        <v>0.006667035758885854</v>
+        <v>0.006667035758885853</v>
       </c>
       <c r="FY23">
         <v>0.2141459199796422</v>
@@ -20383,7 +20383,7 @@
         <v>0.17692316410474</v>
       </c>
       <c r="AT26">
-        <v>0.004132651045191025</v>
+        <v>0.004132651045191024</v>
       </c>
       <c r="AU26">
         <v>0.06113851147486152</v>
@@ -20728,7 +20728,7 @@
         <v>0.1786934807806462</v>
       </c>
       <c r="FE26">
-        <v>0.003198484438000028</v>
+        <v>0.003198484438000027</v>
       </c>
       <c r="FF26">
         <v>0</v>
@@ -20872,7 +20872,7 @@
         <v>0.06561428179355605</v>
       </c>
       <c r="HA26">
-        <v>0.008004556613531439</v>
+        <v>0.00800455661353144</v>
       </c>
       <c r="HB26">
         <v>0.06320562175086301</v>
@@ -21386,7 +21386,7 @@
         <v>0.009824555007944845</v>
       </c>
       <c r="DR27">
-        <v>0.009194870815760174</v>
+        <v>0.009194870815760176</v>
       </c>
       <c r="DS27">
         <v>0</v>
@@ -21569,7 +21569,7 @@
         <v>0.1517529719336172</v>
       </c>
       <c r="GA27">
-        <v>0.03209953888756906</v>
+        <v>0.03209953888756905</v>
       </c>
       <c r="GB27">
         <v>0.1335017300650522</v>
@@ -23369,7 +23369,7 @@
         <v>3.08954113613157</v>
       </c>
       <c r="H30">
-        <v>0.06190872396161733</v>
+        <v>0.06190872396161732</v>
       </c>
       <c r="I30">
         <v>0.04925252946059177</v>
@@ -23519,7 +23519,7 @@
         <v>0.06869541392912284</v>
       </c>
       <c r="BF30">
-        <v>0.05577386673364962</v>
+        <v>0.05577386673364963</v>
       </c>
       <c r="BG30">
         <v>0.07324835242997721</v>
@@ -23651,7 +23651,7 @@
         <v>0.2712655111229911</v>
       </c>
       <c r="CX30">
-        <v>0.00191552160583328</v>
+        <v>0.001915521605833281</v>
       </c>
       <c r="CY30">
         <v>0.08944880880114221</v>
@@ -23681,7 +23681,7 @@
         <v>0</v>
       </c>
       <c r="DH30">
-        <v>0.002687767599328006</v>
+        <v>0.002687767599328005</v>
       </c>
       <c r="DI30">
         <v>0.01366853885107865</v>
@@ -24867,7 +24867,7 @@
         <v>0.03669083286322582</v>
       </c>
       <c r="IO31">
-        <v>0.001531509179094593</v>
+        <v>0.001531509179094592</v>
       </c>
       <c r="IP31">
         <v>1.340315348642437</v>
@@ -25715,7 +25715,7 @@
         <v>0.2497303561876507</v>
       </c>
       <c r="O33">
-        <v>0.07942381780139926</v>
+        <v>0.07942381780139925</v>
       </c>
       <c r="P33">
         <v>3.22216125943781</v>
@@ -26985,7 +26985,7 @@
         <v>0.02229406241734895</v>
       </c>
       <c r="FX34">
-        <v>0.004071425692755819</v>
+        <v>0.004071425692755818</v>
       </c>
       <c r="FY34">
         <v>0.3190414123861537</v>
@@ -27499,7 +27499,7 @@
         <v>0.05800698733893177</v>
       </c>
       <c r="CO35">
-        <v>0.002184096313895697</v>
+        <v>0.002184096313895698</v>
       </c>
       <c r="CP35">
         <v>0.05857283586078754</v>
@@ -28794,7 +28794,7 @@
         <v>3.982532983390242</v>
       </c>
       <c r="H37">
-        <v>0.2611544579939341</v>
+        <v>0.261154457993934</v>
       </c>
       <c r="I37">
         <v>0.7370372608102392</v>
@@ -28905,7 +28905,7 @@
         <v>0.8113556541468838</v>
       </c>
       <c r="AS37">
-        <v>0.239119181702489</v>
+        <v>0.2391191817024891</v>
       </c>
       <c r="AT37">
         <v>0</v>
@@ -29025,7 +29025,7 @@
         <v>0.0404749121291783</v>
       </c>
       <c r="CG37">
-        <v>0.007723444376340777</v>
+        <v>0.007723444376340776</v>
       </c>
       <c r="CH37">
         <v>1.686631000041589</v>
@@ -30094,7 +30094,7 @@
         <v>0.1009756744337635</v>
       </c>
       <c r="GA38">
-        <v>0.003938836794268311</v>
+        <v>0.003938836794268312</v>
       </c>
       <c r="GB38">
         <v>0.1427187565030419</v>
@@ -31326,7 +31326,7 @@
         <v>0.5260331802981504</v>
       </c>
       <c r="BY40">
-        <v>0.3107355255982357</v>
+        <v>0.3107355255982358</v>
       </c>
       <c r="BZ40">
         <v>0</v>
@@ -31377,7 +31377,7 @@
         <v>0</v>
       </c>
       <c r="CP40">
-        <v>0.009974124505038108</v>
+        <v>0.009974124505038106</v>
       </c>
       <c r="CQ40">
         <v>0.0161293937407383</v>
@@ -31518,7 +31518,7 @@
         <v>9.971172436215907</v>
       </c>
       <c r="EK40">
-        <v>0.7813948876420538</v>
+        <v>0.7813948876420537</v>
       </c>
       <c r="EL40">
         <v>3.000872317961198</v>
@@ -31912,7 +31912,7 @@
         <v>19.98741646939188</v>
       </c>
       <c r="N41">
-        <v>0.06867076315716814</v>
+        <v>0.06867076315716815</v>
       </c>
       <c r="O41">
         <v>0.07575249751661242</v>
@@ -31927,7 +31927,7 @@
         <v>0.4435985532519326</v>
       </c>
       <c r="S41">
-        <v>0.03715038185879831</v>
+        <v>0.0371503818587983</v>
       </c>
       <c r="T41">
         <v>10.112849291273</v>
@@ -31945,7 +31945,7 @@
         <v>0.1456205272824438</v>
       </c>
       <c r="Y41">
-        <v>0.08397419378219567</v>
+        <v>0.08397419378219566</v>
       </c>
       <c r="Z41">
         <v>0.02937104936165289</v>
@@ -31996,7 +31996,7 @@
         <v>0.3542941750019982</v>
       </c>
       <c r="AP41">
-        <v>0.2297598133048214</v>
+        <v>0.2297598133048213</v>
       </c>
       <c r="AQ41">
         <v>0.4298875458302647</v>
@@ -33939,7 +33939,7 @@
         <v>0</v>
       </c>
       <c r="FQ43">
-        <v>1.23341633095984</v>
+        <v>1.233416330959841</v>
       </c>
       <c r="FR43">
         <v>0.1040348307459132</v>
@@ -34369,7 +34369,7 @@
         <v>0.1959485608386854</v>
       </c>
       <c r="BF44">
-        <v>0.179812183978401</v>
+        <v>0.1798121839784011</v>
       </c>
       <c r="BG44">
         <v>0.1765475197862026</v>
@@ -34486,7 +34486,7 @@
         <v>0.1683924408184763</v>
       </c>
       <c r="CS44">
-        <v>0.002218694295267443</v>
+        <v>0.002218694295267444</v>
       </c>
       <c r="CT44">
         <v>0.1033364407613232</v>
@@ -34903,7 +34903,7 @@
         <v>0.1923939463934342</v>
       </c>
       <c r="IB44">
-        <v>0.006651093606120877</v>
+        <v>0.006651093606120878</v>
       </c>
       <c r="IC44">
         <v>0.1486184889479974</v>
@@ -35453,7 +35453,7 @@
         <v>0.105191300983689</v>
       </c>
       <c r="FE45">
-        <v>0.0009925931763890858</v>
+        <v>0.0009925931763890856</v>
       </c>
       <c r="FF45">
         <v>0</v>
@@ -35714,7 +35714,7 @@
         <v>0.02595756177532214</v>
       </c>
       <c r="IN45">
-        <v>0.008814315513305804</v>
+        <v>0.008814315513305802</v>
       </c>
       <c r="IO45">
         <v>0.001786242375663958</v>
